--- a/BillAppDocs/OnceUploadData.xlsx
+++ b/BillAppDocs/OnceUploadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964CA8A1-6B9C-4DF4-BAA8-772A8BD67BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5D465-5B5A-4BBC-8480-B74F5CE6E135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +604,83 @@
         <v>14863</v>
       </c>
     </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12345678901122</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1798</v>
+      </c>
+      <c r="S3">
+        <v>9325</v>
+      </c>
+      <c r="T3">
+        <v>1800</v>
+      </c>
+      <c r="U3">
+        <v>9332</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1849</v>
+      </c>
+      <c r="Y3">
+        <v>9571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BillAppDocs/OnceUploadData.xlsx
+++ b/BillAppDocs/OnceUploadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5D465-5B5A-4BBC-8480-B74F5CE6E135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0737DD-12B5-4E23-A803-578CD164FF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>meterId</t>
-  </si>
-  <si>
     <t>previous_peak_1</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>previous_peak_12</t>
+  </si>
+  <si>
+    <t>userId</t>
   </si>
 </sst>
 </file>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,84 +452,84 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12345678901234</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12345678901122</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/BillAppDocs/OnceUploadData.xlsx
+++ b/BillAppDocs/OnceUploadData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0737DD-12B5-4E23-A803-578CD164FF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE12DDC-3B18-41BD-9E6B-DEC199ADBE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
